--- a/mainexcel/squad1/ИСпПК-24-1.xlsx
+++ b/mainexcel/squad1/ИСпПК-24-1.xlsx
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -727,23 +728,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.0"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375"/>
+    <col min="5" max="5" customWidth="true" style="2" width="11.42578125"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="15.7109375"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375"/>
+    <col min="11" max="11" customWidth="true" style="2" width="14.7109375"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="15.7109375"/>
+    <col min="15" max="15" customWidth="true" style="2" width="8.85546875"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375"/>
+    <col min="17" max="17" customWidth="true" style="2" width="10.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1769,127 +1770,86 @@
   <mergeCells count="131">
     <mergeCell ref="N41:Q41"/>
     <mergeCell ref="N42:P42"/>
-    <mergeCell ref="M41:M42"/>
     <mergeCell ref="M36:Q36"/>
     <mergeCell ref="N37:Q37"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="M37:M38"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="M39:M40"/>
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="G41:G42"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="G43:G44"/>
     <mergeCell ref="G36:K36"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="N31:P31"/>
-    <mergeCell ref="M30:M31"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="M32:M33"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="G32:G33"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="G34:G35"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M27:Q27"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="N29:P29"/>
-    <mergeCell ref="M28:M29"/>
     <mergeCell ref="N30:Q30"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:P20"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A1:Q1"/>
@@ -1897,7 +1857,6 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
